--- a/data/merchant_logos.xlsx
+++ b/data/merchant_logos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vansh\Downloads\Financo -  Banking Analytics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF349C4-6E49-411D-985D-423DCB99A329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4998D9-2F5B-422A-861F-88DAF9519415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>merchant</t>
   </si>
@@ -98,13 +98,34 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/vanshag1208/Financo-Banking-Analytics/main/images/merchants/bigbazaar.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company </t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/vanshag1208/Financo-Banking-Analytics/main/images/merchants/company.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/vanshag1208/Financo-Banking-Analytics/main/images/merchants/bank.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Card Payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Owner </t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/vanshag1208/Financo-Banking-Analytics/main/images/merchants/houseowner.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +140,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,9 +169,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,15 +478,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="105.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,6 +593,47 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -578,6 +649,10 @@
     <hyperlink ref="B4" r:id="rId10" xr:uid="{8AEB7646-AA1F-42F5-B136-16839FF6ED80}"/>
     <hyperlink ref="B2" r:id="rId11" xr:uid="{DA8DA820-D784-4704-8A59-A85C8C73B7C2}"/>
     <hyperlink ref="B3" r:id="rId12" xr:uid="{435A2B8C-2048-438C-9DDC-FA8DA5800BD1}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{CFB2341B-61C6-4CA3-B9B7-8D6A44F000A7}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{1A2114E5-6866-4E5C-BB00-31A16DC1E44E}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{405E1DC1-523F-422C-B862-4A2AB7A8B680}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{304B75D9-7796-466C-9FE5-A355D35C6683}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
